--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GATO ROXO\Downloads\Logica Digital\trabalho 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41E1960-AB7B-4459-9893-798B72B9D9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E8BB56-D0DE-4397-AADE-612B35CE3D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{651F4D02-D758-47B1-A9B9-AAF85F486604}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{651F4D02-D758-47B1-A9B9-AAF85F486604}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
   <si>
     <t>S0</t>
   </si>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,10 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -567,22 +564,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -919,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29654C36-51C3-4B23-BC86-DF3597D521F8}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="111" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +957,8 @@
     <col min="8" max="10" width="14.77734375" style="1"/>
     <col min="11" max="11" width="19.77734375" style="1" customWidth="1"/>
     <col min="12" max="14" width="14.77734375" style="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="14.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -979,431 +1001,427 @@
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
         <v>0</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="35">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>0</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <v>0</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>1</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
       </c>
-      <c r="D7" s="35">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>0</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>1</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <v>0</v>
       </c>
       <c r="K7" s="10">
         <v>0</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="35">
-        <v>1</v>
-      </c>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>0</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <v>0</v>
       </c>
       <c r="K9" s="10">
         <v>0</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="21">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="35">
-        <v>0</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>0</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="34">
+      <c r="J11" s="33">
         <v>1</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="21">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="22">
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>0</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="35">
-        <v>0</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <v>0</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>0</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <v>0</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="23">
-        <v>1</v>
-      </c>
-      <c r="C14" s="24">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="24">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="23">
-        <v>1</v>
-      </c>
-      <c r="K14" s="24">
-        <v>1</v>
-      </c>
-      <c r="L14" s="25">
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
+        <v>1</v>
+      </c>
+      <c r="L14" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1422,25 +1440,34 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1449,7 +1476,7 @@
       <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1458,7 +1485,7 @@
       <c r="F18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1467,404 +1494,635 @@
       <c r="I18" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
-        <v>0</v>
-      </c>
-      <c r="B19" s="38">
-        <v>0</v>
-      </c>
-      <c r="C19" s="39">
-        <v>0</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0</v>
-      </c>
-      <c r="E19" s="38">
-        <v>0</v>
-      </c>
-      <c r="F19" s="39">
-        <v>0</v>
-      </c>
-      <c r="G19" s="37">
-        <v>0</v>
-      </c>
-      <c r="H19" s="38">
-        <v>0</v>
-      </c>
-      <c r="I19" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>0</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0</v>
-      </c>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="J18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>0</v>
+      </c>
+      <c r="B19" s="37">
+        <v>0</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>1</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="38">
+        <v>0</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36">
+        <v>0</v>
+      </c>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="34">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="34">
+        <v>1</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="21">
+        <v>1</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="34">
+        <v>0</v>
+      </c>
+      <c r="D23" s="33">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="33">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="34">
+        <v>1</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="34">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="34">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0</v>
+      </c>
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="33">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="34">
+        <v>0</v>
+      </c>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10">
+        <v>1</v>
+      </c>
+      <c r="P27" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="33">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="33">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="33">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="34">
+        <v>1</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33">
+        <v>1</v>
+      </c>
+      <c r="O29" s="10">
+        <v>1</v>
+      </c>
+      <c r="P29" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22">
+        <v>0</v>
+      </c>
+      <c r="B30" s="23">
+        <v>0</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
-        <v>1</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="34">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="34">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
-      <c r="C22" s="22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="34">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="35">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <v>0</v>
-      </c>
-      <c r="B24" s="11">
-        <v>0</v>
-      </c>
-      <c r="C24" s="22">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="22">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="34">
-        <v>0</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="35">
-        <v>0</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <v>0</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="I26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="34">
-        <v>0</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="35">
-        <v>0</v>
-      </c>
-      <c r="D27" s="34">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="35">
-        <v>0</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
-        <v>0</v>
-      </c>
-      <c r="B28" s="11">
-        <v>0</v>
-      </c>
-      <c r="C28" s="22">
-        <v>0</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="34">
-        <v>1</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="35">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="35">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>0</v>
-      </c>
-      <c r="B30" s="11">
-        <v>0</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="22">
-        <v>1</v>
-      </c>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41">
-        <v>0</v>
-      </c>
-      <c r="B31" s="42">
-        <v>0</v>
-      </c>
-      <c r="C31" s="43">
-        <v>0</v>
-      </c>
-      <c r="D31" s="41">
-        <v>0</v>
-      </c>
-      <c r="E31" s="42">
-        <v>0</v>
-      </c>
-      <c r="F31" s="43">
-        <v>0</v>
-      </c>
-      <c r="G31" s="41">
-        <v>0</v>
-      </c>
-      <c r="H31" s="42">
-        <v>0</v>
-      </c>
-      <c r="I31" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
+        <v>0</v>
+      </c>
+      <c r="K30" s="23">
+        <v>0</v>
+      </c>
+      <c r="L30" s="24">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22">
+        <v>0</v>
+      </c>
+      <c r="O30" s="23">
+        <v>0</v>
+      </c>
+      <c r="P30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1873,194 +2131,508 @@
       <c r="D34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="37">
-        <v>0</v>
-      </c>
-      <c r="C35" s="38">
-        <v>0</v>
-      </c>
-      <c r="D35" s="39">
-        <v>0</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="21" t="s">
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="44">
+        <v>0</v>
+      </c>
+      <c r="C35" s="44">
+        <v>0</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="34">
+        <v>0</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C38" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="22">
-        <v>1</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="34">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="D38" s="40">
+        <v>1</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="33">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D40" s="34">
+        <v>1</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="33">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="48">
+        <v>1</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="D44" s="49">
+        <v>1</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="21">
-        <v>1</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0</v>
-      </c>
-      <c r="E38" s="28" t="s">
+      <c r="B45" s="33">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="34">
+        <v>0</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="B46" s="36">
+        <v>1</v>
+      </c>
+      <c r="C46" s="37">
+        <v>0</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="34">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
-      <c r="D39" s="35">
-        <v>0</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="21">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0</v>
-      </c>
-      <c r="D40" s="22">
-        <v>0</v>
-      </c>
-      <c r="E40" s="28" t="s">
+      <c r="B47" s="20">
+        <v>1</v>
+      </c>
+      <c r="C47" s="50">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="33">
+        <v>1</v>
+      </c>
+      <c r="C48" s="51">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34">
+        <v>0</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="B49" s="36">
+        <v>0</v>
+      </c>
+      <c r="C49" s="37">
+        <v>1</v>
+      </c>
+      <c r="D49" s="38">
+        <v>0</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B50" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="10">
-        <v>1</v>
-      </c>
-      <c r="D41" s="35" t="s">
+      <c r="C50" s="52">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21">
+        <v>1</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="33">
+        <v>1</v>
+      </c>
+      <c r="C51" s="51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="34">
+        <v>0</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0</v>
+      </c>
+      <c r="C52" s="18">
+        <v>0</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="33">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="C54" s="47">
+        <v>1</v>
+      </c>
+      <c r="D54" s="49">
+        <v>1</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="21">
-        <v>0</v>
-      </c>
-      <c r="C42" s="11">
-        <v>1</v>
-      </c>
-      <c r="D42" s="22">
-        <v>0</v>
-      </c>
-      <c r="E42" s="28" t="s">
+      <c r="B55" s="33">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="B56" s="18">
+        <v>0</v>
+      </c>
+      <c r="C56" s="18">
+        <v>1</v>
+      </c>
+      <c r="D56" s="18">
+        <v>0</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="34">
-        <v>0</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="35">
-        <v>0</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="21">
-        <v>0</v>
-      </c>
-      <c r="C44" s="11">
-        <v>0</v>
-      </c>
-      <c r="D44" s="22">
-        <v>0</v>
-      </c>
-      <c r="E44" s="28" t="s">
+      <c r="B57" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="52">
+        <v>1</v>
+      </c>
+      <c r="D57" s="52">
+        <v>1</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="23">
+        <v>1</v>
+      </c>
+      <c r="C58" s="23">
+        <v>1</v>
+      </c>
+      <c r="D58" s="23">
+        <v>0</v>
+      </c>
+      <c r="E58" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="45" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="41">
-        <v>1</v>
-      </c>
-      <c r="C45" s="42">
-        <v>1</v>
-      </c>
-      <c r="D45" s="43">
-        <v>0</v>
-      </c>
-      <c r="E45" s="45" t="s">
+      <c r="B59" s="18">
+        <v>1</v>
+      </c>
+      <c r="C59" s="18">
+        <v>1</v>
+      </c>
+      <c r="D59" s="18">
+        <v>0</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="23">
+        <v>1</v>
+      </c>
+      <c r="E60" s="28" t="s">
         <v>0</v>
       </c>
     </row>
